--- a/example_data/EMA/label_corrected/cubicin-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cubicin-epar-product-information_en.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || renal</t>
+          <t>populations - pediatric || populations - adult || renal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - adult || populations - pediatric || warnings</t>
+          <t>populations - adolescent || populations - adult || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
